--- a/patient_data/patient_5.xlsx
+++ b/patient_data/patient_5.xlsx
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1191,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1422,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
